--- a/assets/spreadSheets/addressBookcontacts.xlsx
+++ b/assets/spreadSheets/addressBookcontacts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
   <si>
     <t/>
   </si>
@@ -59,7 +59,7 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>shbxfdbqqqq</t>
+    <t>shbxfdb</t>
   </si>
   <si>
     <t>sdghbnfr</t>
@@ -68,13 +68,13 @@
     <t>Male</t>
   </si>
   <si>
-    <t>2024-11-15</t>
+    <t>2024-11-21</t>
   </si>
   <si>
     <t>dgfbxfxgdn</t>
   </si>
   <si>
-    <t>asfvd</t>
+    <t>fsdfg</t>
   </si>
   <si>
     <t>hjmgjfgmk</t>
@@ -86,25 +86,22 @@
     <t>ghkgkh</t>
   </si>
   <si>
-    <t>jitinj116433@gmail.com</t>
-  </si>
-  <si>
-    <t>shbxfdb</t>
-  </si>
-  <si>
-    <t>2024-11-28</t>
-  </si>
-  <si>
-    <t>fsdfg</t>
-  </si>
-  <si>
-    <t>jitinj11136@gmail.com</t>
-  </si>
-  <si>
-    <t>2024-11-23</t>
-  </si>
-  <si>
-    <t>ram@3113gmail.com</t>
+    <t>jithinj311003@gmail.com</t>
+  </si>
+  <si>
+    <t>2024-11-22</t>
+  </si>
+  <si>
+    <t>jitinj167816@gmail.com</t>
+  </si>
+  <si>
+    <t>joy</t>
+  </si>
+  <si>
+    <t>2024-11-27</t>
+  </si>
+  <si>
+    <t>jithinj31157843@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -155,9 +152,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="12" max="12" width="22.91015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="26.296875" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="5.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.76953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.54296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.3046875" customWidth="true" bestFit="true"/>
@@ -249,7 +246,7 @@
         <v>24</v>
       </c>
       <c r="M2" t="n">
-        <v>5.611165698E9</v>
+        <v>7.676333399E9</v>
       </c>
     </row>
     <row r="3">
@@ -257,7 +254,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -266,13 +263,13 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
@@ -287,10 +284,10 @@
         <v>123456.0</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M3" t="n">
-        <v>1.100003116E9</v>
+        <v>1.111155555E9</v>
       </c>
     </row>
     <row r="4">
@@ -298,22 +295,22 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
@@ -328,10 +325,10 @@
         <v>123456.0</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" t="n">
-        <v>2.345645679E9</v>
+        <v>4.569872189E9</v>
       </c>
     </row>
   </sheetData>

--- a/assets/spreadSheets/addressBookcontacts.xlsx
+++ b/assets/spreadSheets/addressBookcontacts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -68,7 +68,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>2024-11-21</t>
+    <t>2024-11-14</t>
   </si>
   <si>
     <t>dgfbxfxgdn</t>
@@ -86,22 +86,7 @@
     <t>ghkgkh</t>
   </si>
   <si>
-    <t>jithinj311003@gmail.com</t>
-  </si>
-  <si>
-    <t>2024-11-22</t>
-  </si>
-  <si>
-    <t>jitinj167816@gmail.com</t>
-  </si>
-  <si>
-    <t>joy</t>
-  </si>
-  <si>
-    <t>2024-11-27</t>
-  </si>
-  <si>
-    <t>jithinj31157843@gmail.com</t>
+    <t>jithinjoy31130@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -146,13 +131,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="12" max="12" width="26.296875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="25.10546875" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="5.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
@@ -246,89 +231,7 @@
         <v>24</v>
       </c>
       <c r="M2" t="n">
-        <v>7.676333399E9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="n">
-        <v>123456.0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.111155555E9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="n">
-        <v>123456.0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4.569872189E9</v>
+        <v>4.567021E9</v>
       </c>
     </row>
   </sheetData>

--- a/assets/spreadSheets/addressBookcontacts.xlsx
+++ b/assets/spreadSheets/addressBookcontacts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="36">
   <si>
     <t/>
   </si>
@@ -56,6 +56,9 @@
     <t>MOBILE</t>
   </si>
   <si>
+    <t>PROFILE</t>
+  </si>
+  <si>
     <t>Mr</t>
   </si>
   <si>
@@ -68,7 +71,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>2024-11-14</t>
+    <t>2024-12-03</t>
   </si>
   <si>
     <t>dgfbxfxgdn</t>
@@ -86,7 +89,37 @@
     <t>ghkgkh</t>
   </si>
   <si>
-    <t>jithinjoy31130@gmail.com</t>
+    <t>jithinjoy189@gmail.com</t>
+  </si>
+  <si>
+    <t>excel.png</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>jitinj116999@gmail.com</t>
+  </si>
+  <si>
+    <t>color.PNG</t>
+  </si>
+  <si>
+    <t>2024-12-04</t>
+  </si>
+  <si>
+    <t>jitinj11003@gmail.com</t>
+  </si>
+  <si>
+    <t>defaultProfile.jpg</t>
+  </si>
+  <si>
+    <t>2024-12-26</t>
+  </si>
+  <si>
+    <t>jitinj1001673@gmail.com</t>
+  </si>
+  <si>
+    <t>blue.PNG</t>
   </si>
 </sst>
 </file>
@@ -131,13 +164,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="12" max="12" width="25.10546875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="24.0234375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="16.5234375" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="5.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
@@ -192,46 +226,184 @@
       <c r="M1" t="s">
         <v>13</v>
       </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="n">
         <v>123456.0</v>
       </c>
       <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.330903116E9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="n">
-        <v>4.567021E9</v>
+      <c r="K3" t="n">
+        <v>123456.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.30003116E9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="n">
+        <v>691310.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.330003116E9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="n">
+        <v>123456.0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8.943403111E9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
